--- a/binance_api/contract.xlsx
+++ b/binance_api/contract.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -520,9 +520,709 @@
         <v>9193.478564919998</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>9040077</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2022-01-22T15:19:00.232Z</v>
+      </c>
+      <c r="C5" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D5">
+        <v>35084.82</v>
+      </c>
+      <c r="E5">
+        <v>0.001</v>
+      </c>
+      <c r="F5">
+        <v>35.08482</v>
+      </c>
+      <c r="G5">
+        <v>35084.82</v>
+      </c>
+      <c r="H5">
+        <v>0.001</v>
+      </c>
+      <c r="I5">
+        <v>1.093032</v>
+      </c>
+      <c r="J5">
+        <v>5896.78132525</v>
+      </c>
+      <c r="K5">
+        <v>5900.04533622424</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>9045663</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2022-01-22T15:39:15.183Z</v>
+      </c>
+      <c r="C6" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D6">
+        <v>34999.639996148595</v>
+      </c>
+      <c r="E6">
+        <v>0.028561</v>
+      </c>
+      <c r="F6">
+        <v>999.62471793</v>
+      </c>
+      <c r="G6">
+        <v>34999.639996148595</v>
+      </c>
+      <c r="H6">
+        <v>0.028561</v>
+      </c>
+      <c r="I6">
+        <v>1.092032</v>
+      </c>
+      <c r="J6">
+        <v>5931.86460525</v>
+      </c>
+      <c r="K6">
+        <v>9154.090829889996</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>9045852</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2022-01-22T15:39:57.938Z</v>
+      </c>
+      <c r="C7" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D7">
+        <v>34996.10474203365</v>
+      </c>
+      <c r="E7">
+        <v>0.028589</v>
+      </c>
+      <c r="F7">
+        <v>1000.50363847</v>
+      </c>
+      <c r="G7">
+        <v>34996.10474203365</v>
+      </c>
+      <c r="H7">
+        <v>0.028589</v>
+      </c>
+      <c r="I7">
+        <v>1.120593</v>
+      </c>
+      <c r="J7">
+        <v>4932.23988732</v>
+      </c>
+      <c r="K7">
+        <v>9150.365959919998</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>9045990</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2022-01-22T15:40:27.648Z</v>
+      </c>
+      <c r="C8" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D8">
+        <v>34978.21</v>
+      </c>
+      <c r="E8">
+        <v>0.001</v>
+      </c>
+      <c r="F8">
+        <v>34.97821</v>
+      </c>
+      <c r="G8">
+        <v>34978.21</v>
+      </c>
+      <c r="H8">
+        <v>0.001</v>
+      </c>
+      <c r="I8">
+        <v>1.150182</v>
+      </c>
+      <c r="J8">
+        <v>3896.75803885</v>
+      </c>
+      <c r="K8">
+        <v>3902.01113638422</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>9046351</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2022-01-22T15:41:46.143Z</v>
+      </c>
+      <c r="C9" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D9">
+        <v>35030.71</v>
+      </c>
+      <c r="E9">
+        <v>0.001</v>
+      </c>
+      <c r="F9">
+        <v>35.03071</v>
+      </c>
+      <c r="G9">
+        <v>35030.71</v>
+      </c>
+      <c r="H9">
+        <v>0.001</v>
+      </c>
+      <c r="I9">
+        <v>1.149182</v>
+      </c>
+      <c r="J9">
+        <v>3931.67567655</v>
+      </c>
+      <c r="K9">
+        <v>3936.90162792922</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>9046582</v>
+      </c>
+      <c r="B10" t="str">
+        <v>2022-01-22T15:42:37.051Z</v>
+      </c>
+      <c r="C10" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D10">
+        <v>34992.53</v>
+      </c>
+      <c r="E10">
+        <v>0.001</v>
+      </c>
+      <c r="F10">
+        <v>34.99253</v>
+      </c>
+      <c r="G10">
+        <v>34992.53</v>
+      </c>
+      <c r="H10">
+        <v>0.001</v>
+      </c>
+      <c r="I10">
+        <v>1.150182</v>
+      </c>
+      <c r="J10">
+        <v>3896.68314655</v>
+      </c>
+      <c r="K10">
+        <v>3901.93839469046</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>9046682</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2022-01-22T15:42:58.241Z</v>
+      </c>
+      <c r="C11" t="str">
+        <v>sell</v>
+      </c>
+      <c r="D11">
+        <v>34961.86</v>
+      </c>
+      <c r="E11">
+        <v>0.002</v>
+      </c>
+      <c r="F11">
+        <v>69.92372</v>
+      </c>
+      <c r="G11">
+        <v>34961.86</v>
+      </c>
+      <c r="H11">
+        <v>0.002</v>
+      </c>
+      <c r="I11">
+        <v>1.148182</v>
+      </c>
+      <c r="J11">
+        <v>3966.60686655</v>
+      </c>
+      <c r="K11">
+        <v>3976.96830322704</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>9047271</v>
+      </c>
+      <c r="B12" t="str">
+        <v>2022-01-22T15:45:11.785Z</v>
+      </c>
+      <c r="C12" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D12">
+        <v>35025.44</v>
+      </c>
+      <c r="E12">
+        <v>0.002</v>
+      </c>
+      <c r="F12">
+        <v>70.05088</v>
+      </c>
+      <c r="G12">
+        <v>35025.44</v>
+      </c>
+      <c r="H12">
+        <v>0.002</v>
+      </c>
+      <c r="I12">
+        <v>1.150182</v>
+      </c>
+      <c r="J12">
+        <v>3896.55598655</v>
+      </c>
+      <c r="K12">
+        <v>3907.07636781016</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>9047404</v>
+      </c>
+      <c r="B13" t="str">
+        <v>2022-01-22T15:45:42.010Z</v>
+      </c>
+      <c r="C13" t="str">
+        <v>sell</v>
+      </c>
+      <c r="D13">
+        <v>34998.27</v>
+      </c>
+      <c r="E13">
+        <v>0.002</v>
+      </c>
+      <c r="F13">
+        <v>69.99654</v>
+      </c>
+      <c r="G13">
+        <v>34998.27</v>
+      </c>
+      <c r="H13">
+        <v>0.002</v>
+      </c>
+      <c r="I13">
+        <v>1.148182</v>
+      </c>
+      <c r="J13">
+        <v>3966.55252655</v>
+      </c>
+      <c r="K13">
+        <v>3976.92475384028</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>9047713</v>
+      </c>
+      <c r="B14" t="str">
+        <v>2022-01-22T15:46:49.131Z</v>
+      </c>
+      <c r="C14" t="str">
+        <v>sell</v>
+      </c>
+      <c r="D14">
+        <v>34940.37</v>
+      </c>
+      <c r="E14">
+        <v>0.002</v>
+      </c>
+      <c r="F14">
+        <v>69.88074</v>
+      </c>
+      <c r="G14">
+        <v>34940.37</v>
+      </c>
+      <c r="H14">
+        <v>0.002</v>
+      </c>
+      <c r="I14">
+        <v>1.146182</v>
+      </c>
+      <c r="J14">
+        <v>4036.43326655</v>
+      </c>
+      <c r="K14">
+        <v>9144.086433890001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>9061262</v>
+      </c>
+      <c r="B15" t="str">
+        <v>2022-01-22T16:31:40.648Z</v>
+      </c>
+      <c r="C15" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D15">
+        <v>35274.15</v>
+      </c>
+      <c r="E15">
+        <v>0.001</v>
+      </c>
+      <c r="F15">
+        <v>35.27415</v>
+      </c>
+      <c r="G15">
+        <v>35274.15</v>
+      </c>
+      <c r="H15">
+        <v>0.001</v>
+      </c>
+      <c r="I15">
+        <v>1.147182</v>
+      </c>
+      <c r="J15">
+        <v>4001.15911655</v>
+      </c>
+      <c r="K15">
+        <v>9192.879061849997</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>9061307</v>
+      </c>
+      <c r="B16" t="str">
+        <v>2022-01-22T16:31:48.351Z</v>
+      </c>
+      <c r="C16" t="str">
+        <v>sell</v>
+      </c>
+      <c r="D16">
+        <v>35284.87</v>
+      </c>
+      <c r="E16">
+        <v>0.001</v>
+      </c>
+      <c r="F16">
+        <v>35.28487</v>
+      </c>
+      <c r="G16">
+        <v>35284.87</v>
+      </c>
+      <c r="H16">
+        <v>0.001</v>
+      </c>
+      <c r="I16">
+        <v>1.146182</v>
+      </c>
+      <c r="J16">
+        <v>4036.44398655</v>
+      </c>
+      <c r="K16">
+        <v>9194.456852890002</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>9061487</v>
+      </c>
+      <c r="B17" t="str">
+        <v>2022-01-22T16:32:24.093Z</v>
+      </c>
+      <c r="C17" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D17">
+        <v>35266.44812561681</v>
+      </c>
+      <c r="E17">
+        <v>0.028372</v>
+      </c>
+      <c r="F17">
+        <v>1000.57966622</v>
+      </c>
+      <c r="G17">
+        <v>35266.44812561681</v>
+      </c>
+      <c r="H17">
+        <v>0.028372</v>
+      </c>
+      <c r="I17">
+        <v>1.146182</v>
+      </c>
+      <c r="J17">
+        <v>4036.44398655</v>
+      </c>
+      <c r="K17">
+        <v>9188.77329673</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>9061718</v>
+      </c>
+      <c r="B18" t="str">
+        <v>2022-01-22T16:33:05.845Z</v>
+      </c>
+      <c r="C18" t="str">
+        <v>sell</v>
+      </c>
+      <c r="D18">
+        <v>35246.797225143826</v>
+      </c>
+      <c r="E18">
+        <v>0.028333</v>
+      </c>
+      <c r="F18">
+        <v>998.64750578</v>
+      </c>
+      <c r="G18">
+        <v>35246.797225143826</v>
+      </c>
+      <c r="H18">
+        <v>0.028333</v>
+      </c>
+      <c r="I18">
+        <v>1.174554</v>
+      </c>
+      <c r="J18">
+        <v>3035.86432033</v>
+      </c>
+      <c r="K18">
+        <v>9196.644763470003</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>9061990</v>
+      </c>
+      <c r="B19" t="str">
+        <v>2022-01-22T16:33:51.594Z</v>
+      </c>
+      <c r="C19" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D19">
+        <v>35242.162165667956</v>
+      </c>
+      <c r="E19">
+        <v>0.02837</v>
+      </c>
+      <c r="F19">
+        <v>999.82014064</v>
+      </c>
+      <c r="G19">
+        <v>35242.162165667956</v>
+      </c>
+      <c r="H19">
+        <v>0.02837</v>
+      </c>
+      <c r="I19">
+        <v>1.146221</v>
+      </c>
+      <c r="J19">
+        <v>4034.51182611</v>
+      </c>
+      <c r="K19">
+        <v>9188.541802729998</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>9062273</v>
+      </c>
+      <c r="B20" t="str">
+        <v>2022-01-22T16:34:40.859Z</v>
+      </c>
+      <c r="C20" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D20">
+        <v>35266.6450604661</v>
+      </c>
+      <c r="E20">
+        <v>0.028363</v>
+      </c>
+      <c r="F20">
+        <v>1000.26785385</v>
+      </c>
+      <c r="G20">
+        <v>35266.6450604661</v>
+      </c>
+      <c r="H20">
+        <v>0.028363</v>
+      </c>
+      <c r="I20">
+        <v>1.174591</v>
+      </c>
+      <c r="J20">
+        <v>3034.69168547</v>
+      </c>
+      <c r="K20">
+        <v>9190.120866949997</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>9062549</v>
+      </c>
+      <c r="B21" t="str">
+        <v>2022-01-22T16:35:34.104Z</v>
+      </c>
+      <c r="C21" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D21">
+        <v>35233.76139911894</v>
+      </c>
+      <c r="E21">
+        <v>0.028375</v>
+      </c>
+      <c r="F21">
+        <v>999.7579797</v>
+      </c>
+      <c r="G21">
+        <v>35233.76139911894</v>
+      </c>
+      <c r="H21">
+        <v>0.028375</v>
+      </c>
+      <c r="I21">
+        <v>1.202954</v>
+      </c>
+      <c r="J21">
+        <v>2034.42383162</v>
+      </c>
+      <c r="K21">
+        <v>9186.951024560003</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>9062850</v>
+      </c>
+      <c r="B22" t="str">
+        <v>2022-01-22T16:36:30.854Z</v>
+      </c>
+      <c r="C22" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D22">
+        <v>35235.25856141463</v>
+      </c>
+      <c r="E22">
+        <v>0.028389</v>
+      </c>
+      <c r="F22">
+        <v>1000.2937553</v>
+      </c>
+      <c r="G22">
+        <v>35235.25856141463</v>
+      </c>
+      <c r="H22">
+        <v>0.028389</v>
+      </c>
+      <c r="I22">
+        <v>1.231329</v>
+      </c>
+      <c r="J22">
+        <v>1034.66585192</v>
+      </c>
+      <c r="K22">
+        <v>9182.980041599996</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>9063519</v>
+      </c>
+      <c r="B23" t="str">
+        <v>2022-01-22T16:38:35.865Z</v>
+      </c>
+      <c r="C23" t="str">
+        <v>sell</v>
+      </c>
+      <c r="D23">
+        <v>35213.52331277533</v>
+      </c>
+      <c r="E23">
+        <v>0.028375</v>
+      </c>
+      <c r="F23">
+        <v>999.183724</v>
+      </c>
+      <c r="G23">
+        <v>35213.52331277533</v>
+      </c>
+      <c r="H23">
+        <v>0.028375</v>
+      </c>
+      <c r="I23">
+        <v>1.259718</v>
+      </c>
+      <c r="J23">
+        <v>34.37209662</v>
+      </c>
+      <c r="K23">
+        <v>9187.226590799997</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>9063897</v>
+      </c>
+      <c r="B24" t="str">
+        <v>2022-01-22T16:39:44.106Z</v>
+      </c>
+      <c r="C24" t="str">
+        <v>buy</v>
+      </c>
+      <c r="D24">
+        <v>35206.863567105356</v>
+      </c>
+      <c r="E24">
+        <v>0.028418</v>
+      </c>
+      <c r="F24">
+        <v>1000.50864885</v>
+      </c>
+      <c r="G24">
+        <v>35206.863567105356</v>
+      </c>
+      <c r="H24">
+        <v>0.028418</v>
+      </c>
+      <c r="I24">
+        <v>1.231343</v>
+      </c>
+      <c r="J24">
+        <v>1033.55582062</v>
+      </c>
+      <c r="K24">
+        <v>9174.212931290003</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
   </ignoredErrors>
 </worksheet>
 </file>